--- a/src/main/resources/workbooks/TestSet1.xlsx
+++ b/src/main/resources/workbooks/TestSet1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmcmaster/Workspace/scm/xlsx-lookup/src/test/resources/workbooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmcmaster/Workspace/scm/xlsx-lookup/src/main/resources/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31620" windowHeight="19560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31620" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="7" r:id="rId1"/>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,7 +1857,7 @@
   <dimension ref="C2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/workbooks/TestSet1.xlsx
+++ b/src/main/resources/workbooks/TestSet1.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31620" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31620" windowHeight="19560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="7" r:id="rId1"/>
     <sheet name="Grid V1 Simple" sheetId="2" r:id="rId2"/>
     <sheet name="Grid V1 Complex" sheetId="6" r:id="rId3"/>
     <sheet name="Grid V2" sheetId="9" r:id="rId4"/>
-    <sheet name="Lookup V1" sheetId="8" r:id="rId5"/>
+    <sheet name="ValueList" sheetId="10" r:id="rId5"/>
+    <sheet name="Lookup V1" sheetId="8" r:id="rId6"/>
+    <sheet name="Defaults" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
   <si>
     <t>A</t>
   </si>
@@ -159,15 +161,6 @@
     <t>Lookup V1</t>
   </si>
   <si>
-    <t>Grid - Version 1 - Simple</t>
-  </si>
-  <si>
-    <t>Grid - Version 1 - Complex</t>
-  </si>
-  <si>
-    <t>Lookup - Version 1</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -207,9 +200,6 @@
     <t>Grid V2</t>
   </si>
   <si>
-    <t>Grid - Version 2</t>
-  </si>
-  <si>
     <t>Alias</t>
   </si>
   <si>
@@ -247,13 +237,55 @@
   </si>
   <si>
     <t>Grid_V1_Simple * Grid_V1_Complex</t>
+  </si>
+  <si>
+    <t>A,B,C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Value List</t>
+  </si>
+  <si>
+    <t>Value_List</t>
+  </si>
+  <si>
+    <t>ValueList</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Any Value</t>
+  </si>
+  <si>
+    <t>Example of a table with Defaults</t>
+  </si>
+  <si>
+    <t>#Grid - Version 1 - Simple</t>
+  </si>
+  <si>
+    <t>#Grid - Version 1 - Complex</t>
+  </si>
+  <si>
+    <t>#Lookup - Version 1</t>
+  </si>
+  <si>
+    <t>#Grid - Version 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +328,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -659,11 +704,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,6 +954,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,36 +1100,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,34 +1472,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64" t="s">
+      <c r="H2" s="103"/>
+      <c r="I2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60" t="s">
+      <c r="J2" s="103"/>
+      <c r="K2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="62"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -1231,10 +1531,10 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>40</v>
@@ -1266,10 +1566,10 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>39</v>
@@ -1301,10 +1601,10 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>41</v>
@@ -1328,21 +1628,21 @@
         <v>4</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L6" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="21">
         <v>2</v>
@@ -1370,17 +1670,39 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="23"/>
+      <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="60">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1</v>
+      </c>
+      <c r="I8" s="60">
+        <v>1</v>
+      </c>
+      <c r="J8" s="61">
+        <v>4</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -1697,7 +2019,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,11 +2028,11 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1722,14 +2044,14 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1741,24 +2063,24 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1857,7 +2179,7 @@
   <dimension ref="C2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1876,17 +2198,17 @@
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="107" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1894,27 +2216,27 @@
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
@@ -2008,33 +2330,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K14"/>
+      <selection activeCell="A4" sqref="A4:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="18" max="18" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-    </row>
-    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -2046,244 +2372,775 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="117"/>
+      <c r="J7" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="75" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="39"/>
+      <c r="P9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="39"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="39"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="50">
+        <v>1</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2</v>
+      </c>
+      <c r="H11" s="18">
         <v>3</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="42" t="s">
+      <c r="I11" s="19">
         <v>4</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J11" s="27">
         <v>5</v>
       </c>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
+      <c r="K11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="50">
-        <v>1</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="O11" s="39"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="39"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="52">
         <v>2</v>
-      </c>
-      <c r="H10" s="18">
-        <v>3</v>
-      </c>
-      <c r="I10" s="19">
-        <v>4</v>
-      </c>
-      <c r="J10" s="27">
-        <v>5</v>
-      </c>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="52">
-        <v>2</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="29">
-        <v>6</v>
-      </c>
-      <c r="G11" s="22">
-        <v>7</v>
-      </c>
-      <c r="H11" s="21">
-        <v>8</v>
-      </c>
-      <c r="I11" s="22">
-        <v>9</v>
-      </c>
-      <c r="J11" s="23">
-        <v>10</v>
-      </c>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="52">
-        <v>3</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="29">
+        <v>6</v>
+      </c>
+      <c r="G12" s="22">
+        <v>7</v>
+      </c>
+      <c r="H12" s="21">
+        <v>8</v>
+      </c>
+      <c r="I12" s="22">
+        <v>9</v>
+      </c>
+      <c r="J12" s="23">
+        <v>10</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="39"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52">
+        <v>3</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="29">
         <v>11</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G13" s="22">
         <v>12</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H13" s="21">
         <v>13</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I13" s="22">
         <v>14</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J13" s="23">
         <v>15</v>
       </c>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="53" t="s">
+      <c r="K13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="54">
+      <c r="C14" s="113"/>
+      <c r="D14" s="54">
         <v>4</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="55">
+      <c r="E14" s="51"/>
+      <c r="F14" s="55">
         <v>16</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G14" s="25">
         <v>17</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H14" s="24">
         <v>18</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I14" s="25">
         <v>19</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J14" s="26">
         <v>20</v>
       </c>
-      <c r="K13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
       <c r="K14" s="39"/>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+    </row>
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="39"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="117"/>
+      <c r="J28" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="39"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="39"/>
+    </row>
+    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="39"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="50">
+        <v>1</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="28">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2</v>
+      </c>
+      <c r="H34" s="60">
+        <v>3</v>
+      </c>
+      <c r="I34" s="19">
+        <v>4</v>
+      </c>
+      <c r="J34" s="61">
+        <v>5</v>
+      </c>
+      <c r="K34" s="39"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="109"/>
+      <c r="D35" s="52">
+        <v>2</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="29">
+        <v>6</v>
+      </c>
+      <c r="G35" s="22">
+        <v>7</v>
+      </c>
+      <c r="H35" s="21">
+        <v>8</v>
+      </c>
+      <c r="I35" s="22">
+        <v>9</v>
+      </c>
+      <c r="J35" s="23">
+        <v>10</v>
+      </c>
+      <c r="K35" s="39"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="52">
+        <v>3</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="29">
+        <v>11</v>
+      </c>
+      <c r="G36" s="22">
+        <v>12</v>
+      </c>
+      <c r="H36" s="21">
+        <v>13</v>
+      </c>
+      <c r="I36" s="22">
+        <v>14</v>
+      </c>
+      <c r="J36" s="23">
+        <v>15</v>
+      </c>
+      <c r="K36" s="39"/>
+    </row>
+    <row r="37" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="113"/>
+      <c r="D37" s="54">
+        <v>4</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="55">
+        <v>16</v>
+      </c>
+      <c r="G37" s="25">
+        <v>17</v>
+      </c>
+      <c r="H37" s="67">
+        <v>18</v>
+      </c>
+      <c r="I37" s="25">
+        <v>19</v>
+      </c>
+      <c r="J37" s="26">
+        <v>20</v>
+      </c>
+      <c r="K37" s="39"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:C13"/>
+  <mergeCells count="17">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="F30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="145">
+        <v>1</v>
+      </c>
+      <c r="C2" s="145">
+        <v>2</v>
+      </c>
+      <c r="D2" s="145">
+        <v>3</v>
+      </c>
+      <c r="E2" s="145">
+        <v>4</v>
+      </c>
+      <c r="F2" s="145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="145">
+        <v>6</v>
+      </c>
+      <c r="C3" s="145">
+        <v>7</v>
+      </c>
+      <c r="D3" s="145">
+        <v>8</v>
+      </c>
+      <c r="E3" s="145">
+        <v>9</v>
+      </c>
+      <c r="F3" s="145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="145">
+        <v>11</v>
+      </c>
+      <c r="C4" s="145">
+        <v>12</v>
+      </c>
+      <c r="D4" s="145">
+        <v>13</v>
+      </c>
+      <c r="E4" s="145">
+        <v>14</v>
+      </c>
+      <c r="F4" s="145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="145">
+        <v>16</v>
+      </c>
+      <c r="C5" s="145">
+        <v>17</v>
+      </c>
+      <c r="D5" s="145">
+        <v>18</v>
+      </c>
+      <c r="E5" s="145">
+        <v>19</v>
+      </c>
+      <c r="F5" s="145">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D26"/>
   <sheetViews>
@@ -2297,88 +3154,88 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4" s="32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" s="34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2387,4 +3244,1085 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="2.5" customWidth="1"/>
+    <col min="20" max="20" width="2.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+    </row>
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="39"/>
+      <c r="B2" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="39"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="39"/>
+    </row>
+    <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+    </row>
+    <row r="6" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="135"/>
+      <c r="H6" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+    </row>
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="39"/>
+      <c r="O7" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="39"/>
+    </row>
+    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="132"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="117"/>
+      <c r="J11" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="117"/>
+      <c r="S11" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="39"/>
+    </row>
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="39"/>
+    </row>
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="39"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="60">
+        <v>3</v>
+      </c>
+      <c r="I15" s="19">
+        <v>4</v>
+      </c>
+      <c r="J15" s="61">
+        <v>5</v>
+      </c>
+      <c r="K15" s="142"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="91">
+        <v>1</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="28">
+        <v>1</v>
+      </c>
+      <c r="P15" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="60">
+        <v>3</v>
+      </c>
+      <c r="R15" s="19">
+        <v>4</v>
+      </c>
+      <c r="S15" s="61">
+        <v>5</v>
+      </c>
+      <c r="T15" s="39"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="52">
+        <v>2</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="29">
+        <v>6</v>
+      </c>
+      <c r="G16" s="22">
+        <v>7</v>
+      </c>
+      <c r="H16" s="21">
+        <v>8</v>
+      </c>
+      <c r="I16" s="22">
+        <v>9</v>
+      </c>
+      <c r="J16" s="23">
+        <v>10</v>
+      </c>
+      <c r="K16" s="142"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="92">
+        <v>2</v>
+      </c>
+      <c r="N16" s="51"/>
+      <c r="O16" s="29">
+        <v>6</v>
+      </c>
+      <c r="P16" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>8</v>
+      </c>
+      <c r="R16" s="22">
+        <v>9</v>
+      </c>
+      <c r="S16" s="23">
+        <v>10</v>
+      </c>
+      <c r="T16" s="39"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="52">
+        <v>3</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="29">
+        <v>11</v>
+      </c>
+      <c r="G17" s="22">
+        <v>12</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
+      <c r="I17" s="22">
+        <v>14</v>
+      </c>
+      <c r="J17" s="23">
+        <v>15</v>
+      </c>
+      <c r="K17" s="142"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="92">
+        <v>3</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="29">
+        <v>11</v>
+      </c>
+      <c r="P17" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>13</v>
+      </c>
+      <c r="R17" s="22">
+        <v>14</v>
+      </c>
+      <c r="S17" s="23">
+        <v>15</v>
+      </c>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="54">
+        <v>4</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="55">
+        <v>16</v>
+      </c>
+      <c r="G18" s="25">
+        <v>17</v>
+      </c>
+      <c r="H18" s="67">
+        <v>18</v>
+      </c>
+      <c r="I18" s="25">
+        <v>19</v>
+      </c>
+      <c r="J18" s="26">
+        <v>20</v>
+      </c>
+      <c r="K18" s="142"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="93">
+        <v>4</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="55">
+        <v>16</v>
+      </c>
+      <c r="P18" s="25">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>18</v>
+      </c>
+      <c r="R18" s="25">
+        <v>19</v>
+      </c>
+      <c r="S18" s="26">
+        <v>20</v>
+      </c>
+      <c r="T18" s="39"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+    </row>
+    <row r="23" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="39"/>
+      <c r="O23" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="39"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="117"/>
+      <c r="J25" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="39"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="125"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="39"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="39"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="39"/>
+    </row>
+    <row r="27" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="39"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="39"/>
+    </row>
+    <row r="28" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="39"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="39"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="50">
+        <v>1</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="28">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="60">
+        <v>3</v>
+      </c>
+      <c r="I29" s="19">
+        <v>4</v>
+      </c>
+      <c r="J29" s="61">
+        <v>5</v>
+      </c>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="39"/>
+    </row>
+    <row r="30" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="109"/>
+      <c r="D30" s="52">
+        <v>2</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="29">
+        <v>6</v>
+      </c>
+      <c r="G30" s="22">
+        <v>7</v>
+      </c>
+      <c r="H30" s="21">
+        <v>8</v>
+      </c>
+      <c r="I30" s="22">
+        <v>9</v>
+      </c>
+      <c r="J30" s="23">
+        <v>10</v>
+      </c>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="39"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="39"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="52">
+        <v>3</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="29">
+        <v>11</v>
+      </c>
+      <c r="G31" s="22">
+        <v>12</v>
+      </c>
+      <c r="H31" s="21">
+        <v>13</v>
+      </c>
+      <c r="I31" s="22">
+        <v>14</v>
+      </c>
+      <c r="J31" s="23">
+        <v>15</v>
+      </c>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+    </row>
+    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="113"/>
+      <c r="D32" s="54">
+        <v>4</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="55">
+        <v>16</v>
+      </c>
+      <c r="G32" s="25">
+        <v>17</v>
+      </c>
+      <c r="H32" s="67">
+        <v>18</v>
+      </c>
+      <c r="I32" s="25">
+        <v>19</v>
+      </c>
+      <c r="J32" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="68"/>
+      <c r="B37" s="59"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="68"/>
+      <c r="B38" s="59"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="68"/>
+      <c r="B39" s="59"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="68"/>
+      <c r="B40" s="59"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="68"/>
+      <c r="B41" s="95"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="68"/>
+      <c r="B42" s="86"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="68"/>
+      <c r="B43" s="141"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+      <c r="B44" s="141"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="68"/>
+      <c r="B45" s="86"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M2:S4"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>